--- a/data/trans_bre/P16A15-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P16A15-Dificultad-trans_bre.xlsx
@@ -539,7 +539,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas</t>
+          <t>Población que ha consumido medicamentos para bajar el colesterol en las dos últimas semanas</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_bre/P16A15-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P16A15-Dificultad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>1.905533654958497</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>2.886952510512244</v>
+        <v>2.886952510512248</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.403359074658682</v>
@@ -649,7 +649,7 @@
         <v>0.1693785691429263</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.2305975403367266</v>
+        <v>0.2305975403367268</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.7364787898845896</v>
+        <v>0.194726938222451</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.885986936044281</v>
+        <v>1.941503689913779</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.779358427291953</v>
+        <v>-0.7802015950790904</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.8360057972920791</v>
+        <v>-1.132989715175265</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.05516633798527113</v>
+        <v>0.01573864163124043</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.150808374763985</v>
+        <v>0.1619854995999947</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.06033023905623437</v>
+        <v>-0.06193191263988611</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.05787759841908602</v>
+        <v>-0.08623244338218866</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.787862540533782</v>
+        <v>6.919652208773552</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.87975765182189</v>
+        <v>7.820041364681278</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.556514130282228</v>
+        <v>4.651199419312821</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6.653316731601691</v>
+        <v>6.31758546260073</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.8962283907632311</v>
+        <v>0.9213748938682759</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8701702500912739</v>
+        <v>0.8820658296978603</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.461728862742111</v>
+        <v>0.4661438863180365</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.6403881466904487</v>
+        <v>0.6269533530611773</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.9864921662101913</v>
+        <v>-0.9069495393087318</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-2.747736506729769</v>
+        <v>-2.658565164556931</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-2.117099496036394</v>
+        <v>-1.952774782100018</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.001310894205530597</v>
+        <v>-0.2263217586405177</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1676015116185312</v>
+        <v>-0.1430984115826697</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.2520297856196101</v>
+        <v>-0.2319939414087089</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.217344659715881</v>
+        <v>-0.2019326077351841</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-7.251179844920401e-05</v>
+        <v>-0.01970085343819235</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3.083807669492165</v>
+        <v>3.060901115853267</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>2.871133396503117</v>
+        <v>2.842052256838553</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3.035744786510258</v>
+        <v>3.420535739981964</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5.308069098958882</v>
+        <v>4.914729817805368</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.6928586427917977</v>
+        <v>0.7018058136192377</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3396858120306112</v>
+        <v>0.3240572196945386</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3871190235886899</v>
+        <v>0.4603945656715387</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.4732623233000732</v>
+        <v>0.4210069799120846</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>0.6581899942489631</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.8839469522679055</v>
+        <v>0.8839469522679111</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2593403783368837</v>
@@ -849,7 +849,7 @@
         <v>0.07710085904337903</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.07590529290859251</v>
+        <v>0.07590529290859298</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.6706941336285254</v>
+        <v>-0.6338259272578547</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.550986600876463</v>
+        <v>-1.701718685309663</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.300702960196818</v>
+        <v>-2.101557226316042</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.590199178966652</v>
+        <v>-1.430763346786757</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.1205719294379432</v>
+        <v>-0.1148824485297933</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.1325931666429873</v>
+        <v>-0.1401715164941845</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.2356469544680434</v>
+        <v>-0.2058335394377411</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.1176887317878742</v>
+        <v>-0.11081915398304</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.082670843847851</v>
+        <v>3.167490790814206</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.814214734174981</v>
+        <v>4.701369427201773</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.874953208058375</v>
+        <v>3.880963996551135</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.239809224678562</v>
+        <v>3.104936132732257</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.8471144459361899</v>
+        <v>0.8522729486148505</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4861262300551752</v>
+        <v>0.4800045478840077</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5672431289853601</v>
+        <v>0.5440455207051328</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.3227310585738001</v>
+        <v>0.3054627879850992</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-2.282061860403356</v>
+        <v>-2.045939565630515</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-3.585774528678518</v>
+        <v>-3.532985773625188</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.6419484903222363</v>
+        <v>0.6119430883463259</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-1.716310042493359</v>
+        <v>-1.576629659127898</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.4360633451118553</v>
+        <v>-0.3979668797964512</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3391679054226107</v>
+        <v>-0.3575609435666171</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04247908429510263</v>
+        <v>0.06273026363162065</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1307893916754259</v>
+        <v>-0.1166818293101312</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.760192602260353</v>
+        <v>3.82465018495143</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>4.165049031314711</v>
+        <v>4.237664870028056</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>8.937969339025202</v>
+        <v>9.106164306922611</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3.614991032566205</v>
+        <v>3.473014119473062</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.343577650219159</v>
+        <v>1.335304464499879</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.6674374457217283</v>
+        <v>0.6304930074617742</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.536024276981702</v>
+        <v>1.612936814088962</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.3534090662025439</v>
+        <v>0.3329669393740891</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>1.662995997699763</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1.797182040659492</v>
+        <v>1.797182040659488</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3964167664793879</v>
@@ -1049,7 +1049,7 @@
         <v>0.179039049580648</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.1479341998779159</v>
+        <v>0.1479341998779155</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.023909564324303</v>
+        <v>0.9866401166222218</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2659296638559832</v>
+        <v>0.3138014502001684</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2480519684038986</v>
+        <v>0.2470075241650136</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.3631608122066368</v>
+        <v>0.5366896078949475</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.1655225260157131</v>
+        <v>0.1539549150859384</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02624690990499661</v>
+        <v>0.02888759869829228</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.02277245767478001</v>
+        <v>0.01924733135802522</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.02708270407901877</v>
+        <v>0.04201472955698662</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.461509914218334</v>
+        <v>3.459027128773568</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.529805698164898</v>
+        <v>3.459583745290226</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.213367750181667</v>
+        <v>3.256293340736172</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.034475701001211</v>
+        <v>3.171218830936964</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.67217085545765</v>
+        <v>0.6826150192414768</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.376898498034385</v>
+        <v>0.3633955663836315</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3621935033697056</v>
+        <v>0.3768352293083804</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.2625596033819029</v>
+        <v>0.2829653786210269</v>
       </c>
     </row>
     <row r="19">
